--- a/DOWNLOADS/EDITAIS/U_925872_E_900132025_24-09-2025_08h00m/U_925872_E_900132025_24-09-2025_08h00m_master.xlsx
+++ b/DOWNLOADS/EDITAIS/U_925872_E_900132025_24-09-2025_08h00m/U_925872_E_900132025_24-09-2025_08h00m_master.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="32">
   <si>
     <t>Nº</t>
   </si>
@@ -85,64 +85,22 @@
     <t>Televisor Televisor Tamanho Tela: 50POL, Voltagem: BivoltV, Características Adicionais: Smart Tv, Full Hd, Entradas Hdmi/Usb, Conversor Di, Tipo Tela: Led, Acessórios: Controle Remoto</t>
   </si>
   <si>
-    <t>Computador: completo, teclado e mouse usb, Monitor de no mínimo de 23”, Processador com no mínimo 8 núcleos e 16 threads, 10º Geração ou maior, min. 16 GB de memória, mín. Ssd 512 GB. Sistema operacional nativo atual.(Garantia — mínima de 12 meses)</t>
-  </si>
-  <si>
-    <t>Computador: completo, teclado e mouse usb Monitor de no mínimo de 23”, Processador com no mínimo 8 núcleos e 16 threads, 10º Geração ou maior, min. 16 GB de memória, min. Ssd 512 GB. Sistema operacional nativo atual.(Garantia — mínima de 12 meses)</t>
-  </si>
-  <si>
-    <t>Impressora a Laser Multifuncional: copiadora e scanner, Colorida, impressão duplex, Com WI-FI, conexão ethernet, conexão usb, painel touchscreen, — 110v. (garantia mínima de 12 meses)</t>
-  </si>
-  <si>
-    <t>Notebook: com no mínimo de 15” polegadas, processador com 8 núcleos no mínimo, a partir da 13º geração, 16 GB memória no mínimo, com SSD 512 GB no mínimo. Com sistema operacional — nativo atual. (Garantia mínima de 12 meses)</t>
-  </si>
-  <si>
-    <t>Projetor: com tecnologia DLP, Bivolt, WI-Fl, Alto Falante embutido, 3.500 A 6.000 LUMENS, conexões de HDMI, áudio in-out, VGA, USB-A. (Garantia mínima de 12 meses)</t>
-  </si>
-  <si>
-    <t>Sistema de Senha para Atendimento com Impressora e Totem: Totem de autoatendimento, — com display touchscreen de, no mínimo, 17 polegadas; tela customizável com menus e submenus ilimitados, e emissão de senhas personalizadas contendo logomarca. Com software integrado para controle do atendimento em tempo real, que permita: o acionamento de senhas através do computador dos atendentes; o encaminhamento de senhas para outros departamentos; possibilidade de compartilhamento de tela de chamadas das senhas com programação interna. compatibilidade com o sistema operacional Windows 10 e 11. O totem precisa ser bivolt, possuir garantia de 12 meses contra defeitos de fabricação e ter: processador CPU de, no mínimo, 2.20 GHz, memória RAM de, no mínimo 4 GB e SSD com, no mínimo 120 GB de armazenamenito, altura mínima do totem: 143cm.</t>
-  </si>
-  <si>
-    <t>TV SMART: mín. 50 POLEGADAS, Com resolução 4KkK, taxa de frequência de no mínimo 60Hz, Conexões: 02 (duas) entradas HDMI ou mais, 02 (duas) entradas USB ou mais; bivolt, Deve acompanhar: controle remoto, pilhas, cabo de alimentação, manual de instruções em português  (garantia mínima de 12 meses)</t>
-  </si>
-  <si>
-    <t>3952,02</t>
-  </si>
-  <si>
-    <t>2276,66</t>
-  </si>
-  <si>
-    <t>3485,07</t>
-  </si>
-  <si>
-    <t>3016,17</t>
-  </si>
-  <si>
-    <t>3297,50</t>
-  </si>
-  <si>
-    <t>2440,80</t>
-  </si>
-  <si>
-    <t>284545,44</t>
-  </si>
-  <si>
-    <t>71136,36</t>
-  </si>
-  <si>
-    <t>15936,62</t>
-  </si>
-  <si>
-    <t>83641,68</t>
-  </si>
-  <si>
-    <t>20910,42</t>
-  </si>
-  <si>
-    <t>9048,51</t>
-  </si>
-  <si>
-    <t>7322,40</t>
+    <t>Computador: completo, teclado e mouse usb, Monitor de no mínimo de 23”, Processador com no mínimo 8 núcleos e 16 threads, 10ª Gera- ção ou maior, mín. 16 GB de memória, mín. Ssd 512 GB. Sistema operacional nativo atual.(Garantia mínima de 12 meses)</t>
+  </si>
+  <si>
+    <t>Impressora a Laser Multifuncional: copi- adora e scanner, Colorida, impressão duplex, Com WI-FI, conexão ethernet, co- nexão usb, painel touchscreen, 110v. (garantia mínima de 12 meses)</t>
+  </si>
+  <si>
+    <t>Notebook: com no mínimo de 15” Pole- gadas, processador com 8 núcleos no mí- nimo, a partir da 13ª geração, 16 GB me- mória no mínimo, com SSD 512 GB no mínimo. Com sistema operacional nativo atual. (Garantia mí- nima de 12 meses)</t>
+  </si>
+  <si>
+    <t>Projetor: com tecno- logia DLP, Bivolt, WI- FI, Alto Falante em- butido, 3.500 A 6.000 LUMENS, conexões de HDMI, áudio in- out, VGA, USB-A. (Garantia mínima de 12 meses)</t>
+  </si>
+  <si>
+    <t>Sistema de Senha para Atendimento com Impressora e Totem: Totem de au- toatendimento, com display touchscreen de, no mínimo, 17 po- legadas; tela customizável com menus e submenus ilimitados, e emissão de senhas personali- zadas contendo logomarca. Com sof- tware integrado para controle do atendi- mento em tempo real, que permita: o acio- namento de senhas através do computa- dor dos atendentes; o encaminhamento de senhas para outros departamentos; pos- sibilidade de compartilhamento de tela de chamadas das senhas com progra- mação interna. compatibilidade com o sistema operacio- nal Windows 10 e 11. O totem precisa ser bivolt, possuir garan- tia de 12 meses contra defeitos de fa- bricação e ter: processador CPU de, no mínimo, 2.20 GHz, memória RAM de, no mínimo 4 GB e SSD com, no mínimo 120 GB de armazena- mento, altura mínima do totem: 143cm.</t>
+  </si>
+  <si>
+    <t>TV SMART: mín. 50 POLEGADAS, Com resolução 4k, taxa de frequência de no mí- nimo 60Hz, Conexões: 02 (duas) entradas HDMI ou mais, 02 (duas) entra- das USB ou mais; bivolt, Deve acompa- nhar: controle remoto, pilhas, cabo de alimentação, ma- nual de instruções em português (garantia mínima de 12 meses)</t>
   </si>
   <si>
     <t>Unidade</t>
@@ -557,20 +515,17 @@
       <c r="D2">
         <v>72</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2">
+        <v>284545.44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s">
         <v>30</v>
       </c>
-      <c r="F2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" t="s">
-        <v>44</v>
-      </c>
       <c r="I2" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -581,25 +536,22 @@
         <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3">
         <v>18</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3">
+        <v>71136.36</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" t="s">
         <v>30</v>
       </c>
-      <c r="F3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" t="s">
-        <v>44</v>
-      </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -610,25 +562,25 @@
         <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4">
         <v>7</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4">
+        <v>2276.66</v>
+      </c>
+      <c r="F4">
+        <v>15936.62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" t="s">
         <v>31</v>
-      </c>
-      <c r="F4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -639,25 +591,22 @@
         <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5">
         <v>24</v>
       </c>
-      <c r="E5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" t="s">
-        <v>39</v>
+      <c r="F5">
+        <v>83641.67999999999</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H5" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="I5" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -668,25 +617,22 @@
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6">
         <v>6</v>
       </c>
-      <c r="E6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" t="s">
-        <v>40</v>
+      <c r="F6">
+        <v>20910.42</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H6" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="I6" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -697,25 +643,25 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7">
         <v>3</v>
       </c>
-      <c r="E7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" t="s">
-        <v>41</v>
+      <c r="E7">
+        <v>3016.17</v>
+      </c>
+      <c r="F7">
+        <v>9048.51</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H7" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="I7" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -726,25 +672,25 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" t="s">
-        <v>34</v>
+      <c r="E8">
+        <v>3297.5</v>
+      </c>
+      <c r="F8">
+        <v>3297.5</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="I8" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -755,25 +701,25 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9">
         <v>3</v>
       </c>
-      <c r="E9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" t="s">
-        <v>42</v>
+      <c r="E9">
+        <v>2440.8</v>
+      </c>
+      <c r="F9">
+        <v>7322.4</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H9" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="I9" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
